--- a/DirectCompanies/wwwroot/Import/Employees.xlsx
+++ b/DirectCompanies/wwwroot/Import/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectCompanies\DirectCompanies\wwwroot\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6F3B0-86E8-409E-941F-3E0514B8F8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A526712-ACAF-41AC-9767-8E692E5798F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>BeneficiaryType</t>
+  </si>
+  <si>
+    <t>IsPermanentSuspension</t>
+  </si>
+  <si>
+    <t>IsTemporarySuspension</t>
+  </si>
+  <si>
+    <t>SuspendFromDate</t>
+  </si>
+  <si>
+    <t>SuspendToDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE </t>
   </si>
 </sst>
 </file>
@@ -78,9 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -375,9 +391,13 @@
     <col min="4" max="4" width="21.6328125" customWidth="1"/>
     <col min="5" max="5" width="21.08984375" customWidth="1"/>
     <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="21" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,6 +415,26 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DirectCompanies/wwwroot/Import/Employees.xlsx
+++ b/DirectCompanies/wwwroot/Import/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectCompanies\DirectCompanies\wwwroot\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A526712-ACAF-41AC-9767-8E692E5798F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A57E2D-E84B-496C-8951-62B81CC036E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>BeneficiaryType</t>
-  </si>
-  <si>
-    <t>IsPermanentSuspension</t>
   </si>
   <si>
     <t>IsTemporarySuspension</t>
@@ -377,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -391,13 +388,12 @@
     <col min="4" max="4" width="21.6328125" customWidth="1"/>
     <col min="5" max="5" width="21.08984375" customWidth="1"/>
     <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,22 +415,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
